--- a/Project_datasets/CrimeStatebyState.xlsx
+++ b/Project_datasets/CrimeStatebyState.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\McBlash\00DU\COMP4441\Final Project\Possibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal_docs\DU\COMP_4447\final_project\Project_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8ADC265A-7C28-4DF6-975D-85441FB72719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30526E88-5853-4D34-9680-E8EC9E6198FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="6150" yWindow="1770" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrimeStatebyState" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4460,31 +4471,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="I319" sqref="I319"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -4506,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4574,7 +4585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1978</v>
       </c>
@@ -4636,7 +4647,7 @@
         <v>464.4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1979</v>
       </c>
@@ -4698,7 +4709,7 @@
         <v>493.3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1980</v>
       </c>
@@ -4760,7 +4771,7 @@
         <v>473.3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1981</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1982</v>
       </c>
@@ -4884,7 +4895,7 @@
         <v>369.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1983</v>
       </c>
@@ -4946,7 +4957,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1984</v>
       </c>
@@ -5008,7 +5019,7 @@
         <v>384.5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1985</v>
       </c>
@@ -5070,7 +5081,7 @@
         <v>385.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1986</v>
       </c>
@@ -5132,7 +5143,7 @@
         <v>418.8</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1987</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>422.6</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1988</v>
       </c>
@@ -5256,7 +5267,7 @@
         <v>459.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1989</v>
       </c>
@@ -5318,7 +5329,7 @@
         <v>686.9</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1990</v>
       </c>
@@ -5380,7 +5391,7 @@
         <v>863.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1991</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>861.1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1992</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>821.5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1993</v>
       </c>
@@ -5566,7 +5577,7 @@
         <v>863.8</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1994</v>
       </c>
@@ -5628,7 +5639,7 @@
         <v>1066.7</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1995</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>1157.7</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1996</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>926.7</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1997</v>
       </c>
@@ -5814,7 +5825,7 @@
         <v>970.4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1998</v>
       </c>
@@ -5876,7 +5887,7 @@
         <v>865.1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1999</v>
       </c>
@@ -5938,7 +5949,7 @@
         <v>800.4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -6000,7 +6011,7 @@
         <v>842.1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2001</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>983.7</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -6124,7 +6135,7 @@
         <v>1059.9000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2003</v>
       </c>
@@ -6186,7 +6197,7 @@
         <v>1021.6</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2004</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>963.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -6310,7 +6321,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2006</v>
       </c>
@@ -6372,7 +6383,7 @@
         <v>918.7</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2007</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>792.6</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2008</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>593.6</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2009</v>
       </c>
@@ -6558,7 +6569,7 @@
         <v>400.8</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -6620,7 +6631,7 @@
         <v>338.9</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2012</v>
       </c>
@@ -6744,7 +6755,7 @@
         <v>289.8</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2013</v>
       </c>
@@ -6812,7 +6823,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -6880,12 +6891,12 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>3</v>
       </c>
@@ -6893,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>5</v>
       </c>
@@ -6907,7 +6918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -6975,7 +6986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1978</v>
       </c>
@@ -7037,7 +7048,7 @@
         <v>691.3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1979</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>738.3</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1980</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>742.9</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1981</v>
       </c>
@@ -7223,7 +7234,7 @@
         <v>672.9</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1982</v>
       </c>
@@ -7285,7 +7296,7 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1983</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v>631.20000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1984</v>
       </c>
@@ -7409,7 +7420,7 @@
         <v>629.6</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1985</v>
       </c>
@@ -7471,7 +7482,7 @@
         <v>672.2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1986</v>
       </c>
@@ -7533,7 +7544,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1987</v>
       </c>
@@ -7595,7 +7606,7 @@
         <v>830.1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1988</v>
       </c>
@@ -7657,7 +7668,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1989</v>
       </c>
@@ -7719,7 +7730,7 @@
         <v>1026.9000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1990</v>
       </c>
@@ -7781,7 +7792,7 @@
         <v>1015.5</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1991</v>
       </c>
@@ -7843,7 +7854,7 @@
         <v>1038.9000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1992</v>
       </c>
@@ -7905,7 +7916,7 @@
         <v>1037.0999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1993</v>
       </c>
@@ -7967,7 +7978,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1994</v>
       </c>
@@ -8029,7 +8040,7 @@
         <v>980.6</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -8091,7 +8102,7 @@
         <v>887.9</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1996</v>
       </c>
@@ -8153,7 +8164,7 @@
         <v>760.6</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1997</v>
       </c>
@@ -8215,7 +8226,7 @@
         <v>708.8</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1998</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>598.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1999</v>
       </c>
@@ -8339,7 +8350,7 @@
         <v>508.3</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2000</v>
       </c>
@@ -8401,7 +8412,7 @@
         <v>537.4</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -8463,7 +8474,7 @@
         <v>590.1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -8525,7 +8536,7 @@
         <v>635.29999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2003</v>
       </c>
@@ -8587,7 +8598,7 @@
         <v>680.5</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2004</v>
       </c>
@@ -8649,7 +8660,7 @@
         <v>704.8</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2005</v>
       </c>
@@ -8711,7 +8722,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -8773,7 +8784,7 @@
         <v>668.3</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -8835,7 +8846,7 @@
         <v>602.20000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2008</v>
       </c>
@@ -8897,7 +8908,7 @@
         <v>523.79999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2009</v>
       </c>
@@ -8959,7 +8970,7 @@
         <v>443.3</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -9021,7 +9032,7 @@
         <v>408.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -9083,7 +9094,7 @@
         <v>389.7</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2012</v>
       </c>
@@ -9145,7 +9156,7 @@
         <v>443.7</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -9213,7 +9224,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2014</v>
       </c>
@@ -9281,12 +9292,12 @@
         <v>391.3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>3</v>
       </c>
@@ -9294,7 +9305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>5</v>
       </c>
@@ -9308,7 +9319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -9376,7 +9387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1978</v>
       </c>
@@ -9438,7 +9449,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1979</v>
       </c>
@@ -9500,7 +9511,7 @@
         <v>432.3</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1980</v>
       </c>
@@ -9562,7 +9573,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1981</v>
       </c>
@@ -9624,7 +9635,7 @@
         <v>449.7</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1982</v>
       </c>
@@ -9686,7 +9697,7 @@
         <v>429.8</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1983</v>
       </c>
@@ -9748,7 +9759,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1984</v>
       </c>
@@ -9810,7 +9821,7 @@
         <v>426.7</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1985</v>
       </c>
@@ -9872,7 +9883,7 @@
         <v>525.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1986</v>
       </c>
@@ -9934,7 +9945,7 @@
         <v>598.1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1987</v>
       </c>
@@ -9996,7 +10007,7 @@
         <v>676.7</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1988</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>765.1</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1989</v>
       </c>
@@ -10120,7 +10131,7 @@
         <v>805.7</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1990</v>
       </c>
@@ -10182,7 +10193,7 @@
         <v>826.3</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1991</v>
       </c>
@@ -10244,7 +10255,7 @@
         <v>783.6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1992</v>
       </c>
@@ -10306,7 +10317,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1993</v>
       </c>
@@ -10368,7 +10379,7 @@
         <v>895.7</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1994</v>
       </c>
@@ -10430,7 +10441,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1995</v>
       </c>
@@ -10492,7 +10503,7 @@
         <v>785.8</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1996</v>
       </c>
@@ -10554,7 +10565,7 @@
         <v>720.6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1997</v>
       </c>
@@ -10616,7 +10627,7 @@
         <v>731.5</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1998</v>
       </c>
@@ -10678,7 +10689,7 @@
         <v>698.9</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1999</v>
       </c>
@@ -10740,7 +10751,7 @@
         <v>616.70000000000005</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2000</v>
       </c>
@@ -10802,7 +10813,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2001</v>
       </c>
@@ -10864,7 +10875,7 @@
         <v>549.20000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2002</v>
       </c>
@@ -10926,7 +10937,7 @@
         <v>530.29999999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -10988,7 +10999,7 @@
         <v>479.8</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -11050,7 +11061,7 @@
         <v>450.5</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2005</v>
       </c>
@@ -11112,7 +11123,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2006</v>
       </c>
@@ -11174,7 +11185,7 @@
         <v>422.6</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2007</v>
       </c>
@@ -11236,7 +11247,7 @@
         <v>403.4</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -11298,7 +11309,7 @@
         <v>346.5</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2009</v>
       </c>
@@ -11360,7 +11371,7 @@
         <v>271.10000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2010</v>
       </c>
@@ -11422,7 +11433,7 @@
         <v>220.1</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2011</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>207.6</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2012</v>
       </c>
@@ -11546,7 +11557,7 @@
         <v>193.2</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2013</v>
       </c>
@@ -11614,7 +11625,7 @@
         <v>178.1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -11682,12 +11693,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>3</v>
       </c>
@@ -11695,7 +11706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>5</v>
       </c>
@@ -11709,7 +11720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -11777,7 +11788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1978</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>356.5</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1979</v>
       </c>
@@ -11901,7 +11912,7 @@
         <v>416.3</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1980</v>
       </c>
@@ -11963,7 +11974,7 @@
         <v>372.4</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1981</v>
       </c>
@@ -12025,7 +12036,7 @@
         <v>334.6</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1982</v>
       </c>
@@ -12087,7 +12098,7 @@
         <v>311.7</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1983</v>
       </c>
@@ -12149,7 +12160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1984</v>
       </c>
@@ -12211,7 +12222,7 @@
         <v>292.3</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1985</v>
       </c>
@@ -12273,7 +12284,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1986</v>
       </c>
@@ -12335,7 +12346,7 @@
         <v>430.3</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1987</v>
       </c>
@@ -12397,7 +12408,7 @@
         <v>492.4</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1988</v>
       </c>
@@ -12459,7 +12470,7 @@
         <v>554.6</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1989</v>
       </c>
@@ -12521,7 +12532,7 @@
         <v>653.70000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1990</v>
       </c>
@@ -12583,7 +12594,7 @@
         <v>673.6</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1991</v>
       </c>
@@ -12645,7 +12656,7 @@
         <v>611.29999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1992</v>
       </c>
@@ -12707,7 +12718,7 @@
         <v>576.4</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1993</v>
       </c>
@@ -12769,7 +12780,7 @@
         <v>593.79999999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1994</v>
       </c>
@@ -12831,7 +12842,7 @@
         <v>557.20000000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1995</v>
       </c>
@@ -12893,7 +12904,7 @@
         <v>608.4</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1996</v>
       </c>
@@ -12955,7 +12966,7 @@
         <v>628.5</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1997</v>
       </c>
@@ -13017,7 +13028,7 @@
         <v>595.4</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1998</v>
       </c>
@@ -13079,7 +13090,7 @@
         <v>556.6</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1999</v>
       </c>
@@ -13141,7 +13152,7 @@
         <v>515.1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2000</v>
       </c>
@@ -13203,7 +13214,7 @@
         <v>472.8</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2001</v>
       </c>
@@ -13265,7 +13276,7 @@
         <v>447.2</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2002</v>
       </c>
@@ -13327,7 +13338,7 @@
         <v>445.2</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2003</v>
       </c>
@@ -13389,7 +13400,7 @@
         <v>500.1</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2004</v>
       </c>
@@ -13451,7 +13462,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2005</v>
       </c>
@@ -13513,7 +13524,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2006</v>
       </c>
@@ -13575,7 +13586,7 @@
         <v>460.6</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2007</v>
       </c>
@@ -13637,7 +13648,7 @@
         <v>445.5</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2008</v>
       </c>
@@ -13699,7 +13710,7 @@
         <v>409.3</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2009</v>
       </c>
@@ -13761,7 +13772,7 @@
         <v>337.4</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2010</v>
       </c>
@@ -13823,7 +13834,7 @@
         <v>312.39999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2011</v>
       </c>
@@ -13885,7 +13896,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2012</v>
       </c>
@@ -13947,7 +13958,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2013</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>271.7</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2014</v>
       </c>
@@ -14083,12 +14094,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>3</v>
       </c>
@@ -14096,7 +14107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>5</v>
       </c>
@@ -14110,7 +14121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -14178,7 +14189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1978</v>
       </c>
@@ -14240,7 +14251,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1979</v>
       </c>
@@ -14302,7 +14313,7 @@
         <v>438.9</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1980</v>
       </c>
@@ -14364,7 +14375,7 @@
         <v>426.7</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1981</v>
       </c>
@@ -14426,7 +14437,7 @@
         <v>424.8</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1982</v>
       </c>
@@ -14488,7 +14499,7 @@
         <v>381.7</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1983</v>
       </c>
@@ -14550,7 +14561,7 @@
         <v>344.6</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1984</v>
       </c>
@@ -14612,7 +14623,7 @@
         <v>362.5</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1985</v>
       </c>
@@ -14674,7 +14685,7 @@
         <v>352.7</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1986</v>
       </c>
@@ -14736,7 +14747,7 @@
         <v>375.7</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1987</v>
       </c>
@@ -14798,7 +14809,7 @@
         <v>382.9</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1988</v>
       </c>
@@ -14860,7 +14871,7 @@
         <v>399.2</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1989</v>
       </c>
@@ -14922,7 +14933,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1990</v>
       </c>
@@ -14984,7 +14995,7 @@
         <v>490.6</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1991</v>
       </c>
@@ -15046,7 +15057,7 @@
         <v>500.4</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1992</v>
       </c>
@@ -15108,7 +15119,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1993</v>
       </c>
@@ -15170,7 +15181,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1994</v>
       </c>
@@ -15232,7 +15243,7 @@
         <v>427.1</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1995</v>
       </c>
@@ -15294,7 +15305,7 @@
         <v>414.9</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1996</v>
       </c>
@@ -15356,7 +15367,7 @@
         <v>407.5</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1997</v>
       </c>
@@ -15418,7 +15429,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1998</v>
       </c>
@@ -15480,7 +15491,7 @@
         <v>383.8</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1999</v>
       </c>
@@ -15542,7 +15553,7 @@
         <v>348.2</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2000</v>
       </c>
@@ -15604,7 +15615,7 @@
         <v>343.7</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2001</v>
       </c>
@@ -15666,7 +15677,7 @@
         <v>370.8</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2002</v>
       </c>
@@ -15728,7 +15739,7 @@
         <v>374.9</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2003</v>
       </c>
@@ -15790,7 +15801,7 @@
         <v>358.6</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2004</v>
       </c>
@@ -15852,7 +15863,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2005</v>
       </c>
@@ -15914,7 +15925,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2006</v>
       </c>
@@ -15976,7 +15987,7 @@
         <v>330.9</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2007</v>
       </c>
@@ -16038,7 +16049,7 @@
         <v>296.10000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2008</v>
       </c>
@@ -16100,7 +16111,7 @@
         <v>247.7</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2009</v>
       </c>
@@ -16162,7 +16173,7 @@
         <v>196.3</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2010</v>
       </c>
@@ -16224,7 +16235,7 @@
         <v>183.1</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2011</v>
       </c>
@@ -16286,7 +16297,7 @@
         <v>181.3</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2012</v>
       </c>
@@ -16348,7 +16359,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2013</v>
       </c>
@@ -16416,7 +16427,7 @@
         <v>168.7</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2014</v>
       </c>
@@ -16484,12 +16495,12 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>3</v>
       </c>
@@ -16497,7 +16508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>5</v>
       </c>
@@ -16511,7 +16522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -16579,7 +16590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1978</v>
       </c>
@@ -16641,7 +16652,7 @@
         <v>340.7</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1979</v>
       </c>
@@ -16703,7 +16714,7 @@
         <v>389.4</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1980</v>
       </c>
@@ -16765,7 +16776,7 @@
         <v>418.3</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1981</v>
       </c>
@@ -16827,7 +16838,7 @@
         <v>369.2</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1982</v>
       </c>
@@ -16889,7 +16900,7 @@
         <v>332.2</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1983</v>
       </c>
@@ -16951,7 +16962,7 @@
         <v>315.2</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1984</v>
       </c>
@@ -17013,7 +17024,7 @@
         <v>339.8</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1985</v>
       </c>
@@ -17075,7 +17086,7 @@
         <v>328.2</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1986</v>
       </c>
@@ -17137,7 +17148,7 @@
         <v>354.4</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1987</v>
       </c>
@@ -17199,7 +17210,7 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1988</v>
       </c>
@@ -17261,7 +17272,7 @@
         <v>426.8</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1989</v>
       </c>
@@ -17323,7 +17334,7 @@
         <v>469.4</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1990</v>
       </c>
@@ -17385,7 +17396,7 @@
         <v>505.5</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1991</v>
       </c>
@@ -17447,7 +17458,7 @@
         <v>481.5</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1992</v>
       </c>
@@ -17509,7 +17520,7 @@
         <v>467.7</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1993</v>
       </c>
@@ -17571,7 +17582,7 @@
         <v>440.2</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1994</v>
       </c>
@@ -17633,7 +17644,7 @@
         <v>449.3</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1995</v>
       </c>
@@ -17695,7 +17706,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1996</v>
       </c>
@@ -17757,7 +17768,7 @@
         <v>404.2</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1997</v>
       </c>
@@ -17819,7 +17830,7 @@
         <v>367.8</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1998</v>
       </c>
@@ -17881,7 +17892,7 @@
         <v>355.5</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1999</v>
       </c>
@@ -17943,7 +17954,7 @@
         <v>327.10000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2000</v>
       </c>
@@ -18005,7 +18016,7 @@
         <v>295.8</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2001</v>
       </c>
@@ -18067,7 +18078,7 @@
         <v>290.3</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2002</v>
       </c>
@@ -18129,7 +18140,7 @@
         <v>266.2</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2003</v>
       </c>
@@ -18191,7 +18202,7 @@
         <v>270.3</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2004</v>
       </c>
@@ -18253,7 +18264,7 @@
         <v>249.9</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2005</v>
       </c>
@@ -18315,7 +18326,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2006</v>
       </c>
@@ -18377,7 +18388,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2007</v>
       </c>
@@ -18439,7 +18450,7 @@
         <v>213.2</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -18501,7 +18512,7 @@
         <v>180.7</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2009</v>
       </c>
@@ -18563,7 +18574,7 @@
         <v>141.4</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2010</v>
       </c>
@@ -18625,7 +18636,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2011</v>
       </c>
@@ -18687,7 +18698,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -18749,7 +18760,7 @@
         <v>118.4</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2013</v>
       </c>
@@ -18817,7 +18828,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2014</v>
       </c>
@@ -18885,12 +18896,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
         <v>3</v>
       </c>
@@ -18898,7 +18909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>5</v>
       </c>
@@ -18912,7 +18923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>7</v>
       </c>
@@ -18981,7 +18992,7 @@
       </c>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1978</v>
       </c>
@@ -19043,7 +19054,7 @@
         <v>444.3</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1979</v>
       </c>
@@ -19105,7 +19116,7 @@
         <v>544.20000000000005</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1980</v>
       </c>
@@ -19167,7 +19178,7 @@
         <v>558.1</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1981</v>
       </c>
@@ -19229,7 +19240,7 @@
         <v>564.6</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1982</v>
       </c>
@@ -19291,7 +19302,7 @@
         <v>570.1</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1983</v>
       </c>
@@ -19353,7 +19364,7 @@
         <v>524.9</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1984</v>
       </c>
@@ -19415,7 +19426,7 @@
         <v>549.1</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1985</v>
       </c>
@@ -19477,7 +19488,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1986</v>
       </c>
@@ -19539,7 +19550,7 @@
         <v>714.1</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1987</v>
       </c>
@@ -19601,7 +19612,7 @@
         <v>734.8</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1988</v>
       </c>
@@ -19663,7 +19674,7 @@
         <v>800.1</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1989</v>
       </c>
@@ -19725,7 +19736,7 @@
         <v>888.5</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1990</v>
       </c>
@@ -19787,7 +19798,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1991</v>
       </c>
@@ -19849,7 +19860,7 @@
         <v>944.3</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1992</v>
       </c>
@@ -19911,7 +19922,7 @@
         <v>821.7</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1993</v>
       </c>
@@ -19973,7 +19984,7 @@
         <v>692.3</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1994</v>
       </c>
@@ -20035,7 +20046,7 @@
         <v>602.6</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1995</v>
       </c>
@@ -20097,7 +20108,7 @@
         <v>560.4</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1996</v>
       </c>
@@ -20159,7 +20170,7 @@
         <v>548.6</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1997</v>
       </c>
@@ -20221,7 +20232,7 @@
         <v>523.29999999999995</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1998</v>
       </c>
@@ -20283,7 +20294,7 @@
         <v>489.1</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1999</v>
       </c>
@@ -20345,7 +20356,7 @@
         <v>459.2</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2000</v>
       </c>
@@ -20407,7 +20418,7 @@
         <v>446.8</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2001</v>
       </c>
@@ -20469,7 +20480,7 @@
         <v>480.4</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2002</v>
       </c>
@@ -20531,7 +20542,7 @@
         <v>472.4</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2003</v>
       </c>
@@ -20593,7 +20604,7 @@
         <v>444.3</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2004</v>
       </c>
@@ -20655,7 +20666,7 @@
         <v>418.6</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2005</v>
       </c>
@@ -20717,7 +20728,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2006</v>
       </c>
@@ -20779,7 +20790,7 @@
         <v>405.9</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2007</v>
       </c>
@@ -20841,7 +20852,7 @@
         <v>393.2</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2008</v>
       </c>
@@ -20903,7 +20914,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2009</v>
       </c>
@@ -20965,7 +20976,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2010</v>
       </c>
@@ -21027,7 +21038,7 @@
         <v>269.39999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2011</v>
       </c>
@@ -21089,7 +21100,7 @@
         <v>249.4</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2012</v>
       </c>
@@ -21151,7 +21162,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2013</v>
       </c>
@@ -21219,7 +21230,7 @@
         <v>248.2</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2014</v>
       </c>
@@ -21287,7 +21298,7 @@
         <v>254.3</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B318">
         <f>+B317-B281</f>
         <v>13942958</v>
@@ -21301,7 +21312,7 @@
         <v>147420</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B319" s="3">
         <f>+B318/B281</f>
         <v>1.0713814353772859</v>
@@ -21315,12 +21326,12 @@
         <v>0.22118065036893447</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>35</v>
       </c>
@@ -21328,12 +21339,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>35</v>
       </c>
@@ -21341,17 +21352,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>35</v>
       </c>
@@ -21362,52 +21373,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C332" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>46</v>
       </c>
@@ -21418,14 +21429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
